--- a/madrid/Listado_Compradores.xlsx
+++ b/madrid/Listado_Compradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="126">
   <si>
     <t xml:space="preserve">Nombre Telegram</t>
   </si>
@@ -392,6 +392,12 @@
   </si>
   <si>
     <t xml:space="preserve">Kikeinef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivan cob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puente de Vallecas</t>
   </si>
 </sst>
 </file>
@@ -513,9 +519,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>677520</xdr:colOff>
+      <xdr:colOff>677160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -529,7 +535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5849640" y="334800"/>
-          <a:ext cx="5533920" cy="4150080"/>
+          <a:ext cx="5533560" cy="4149720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -549,10 +555,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1393,6 +1399,17 @@
         <v>75</v>
       </c>
     </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/madrid/Listado_Compradores.xlsx
+++ b/madrid/Listado_Compradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="133">
   <si>
     <t xml:space="preserve">Nombre Telegram</t>
   </si>
@@ -398,6 +398,27 @@
   </si>
   <si>
     <t xml:space="preserve">Puente de Vallecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapinería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halo_Buck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villaviciosa de Odón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatima C C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria</t>
   </si>
 </sst>
 </file>
@@ -519,9 +540,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>677160</xdr:colOff>
+      <xdr:colOff>676800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -535,7 +556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5849640" y="334800"/>
-          <a:ext cx="5533560" cy="4149720"/>
+          <a:ext cx="5533200" cy="4149360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,10 +576,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1410,6 +1431,94 @@
         <v>6</v>
       </c>
     </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/madrid/Listado_Compradores.xlsx
+++ b/madrid/Listado_Compradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
   <si>
     <t xml:space="preserve">Nombre Telegram</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t xml:space="preserve">Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asunción</t>
   </si>
 </sst>
 </file>
@@ -540,9 +546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676800</xdr:colOff>
+      <xdr:colOff>676440</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -556,7 +562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5849640" y="334800"/>
-          <a:ext cx="5533200" cy="4149360"/>
+          <a:ext cx="5532840" cy="4149000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -576,10 +582,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
+      <selection pane="topLeft" activeCell="D79" activeCellId="0" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1519,6 +1525,31 @@
         <v>6</v>
       </c>
     </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/madrid/Listado_Compradores.xlsx
+++ b/madrid/Listado_Compradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="137">
   <si>
     <t xml:space="preserve">Nombre Telegram</t>
   </si>
@@ -361,7 +361,7 @@
     <t xml:space="preserve">Javier</t>
   </si>
   <si>
-    <t xml:space="preserve">S. Norte (valdemanco) </t>
+    <t xml:space="preserve">S. Norte (Valdemanco) </t>
   </si>
   <si>
     <t xml:space="preserve">Romina</t>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t xml:space="preserve">Asunción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.P. 28005</t>
   </si>
 </sst>
 </file>
@@ -546,9 +552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676440</xdr:colOff>
+      <xdr:colOff>676080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -562,7 +568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5849640" y="334800"/>
-          <a:ext cx="5532840" cy="4149000"/>
+          <a:ext cx="5532480" cy="4148640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -582,10 +588,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D79" activeCellId="0" sqref="D79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1550,6 +1556,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/madrid/Listado_Compradores.xlsx
+++ b/madrid/Listado_Compradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="139">
   <si>
     <t xml:space="preserve">Nombre Telegram</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Distrito</t>
   </si>
   <si>
+    <t xml:space="preserve">Código Postal</t>
+  </si>
+  <si>
     <t xml:space="preserve">HumosaG</t>
   </si>
   <si>
@@ -430,7 +433,10 @@
     <t xml:space="preserve">Sonia</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. 28005</t>
+    <t xml:space="preserve">Cristina Vergara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar Baos</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -468,6 +474,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -512,7 +523,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -526,6 +537,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -552,9 +567,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>676080</xdr:colOff>
+      <xdr:colOff>675360</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -568,7 +583,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5849640" y="334800"/>
-          <a:ext cx="5532480" cy="4148640"/>
+          <a:ext cx="5531760" cy="4147920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -588,10 +603,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C83" activeCellId="0" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -616,16 +631,19 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>16</v>
@@ -633,13 +651,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>16</v>
@@ -647,13 +665,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>20</v>
@@ -661,13 +679,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>21</v>
@@ -675,13 +693,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>2</v>
@@ -689,35 +707,35 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>16</v>
@@ -725,24 +743,24 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>14</v>
@@ -750,13 +768,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>16</v>
@@ -764,13 +782,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>8</v>
@@ -778,13 +796,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>14</v>
@@ -792,13 +810,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>15</v>
@@ -806,13 +824,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>25</v>
@@ -820,13 +838,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>25</v>
@@ -834,24 +852,24 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>20</v>
@@ -859,46 +877,46 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>8</v>
@@ -906,24 +924,24 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>21</v>
@@ -931,24 +949,24 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>12</v>
@@ -956,13 +974,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>18</v>
@@ -970,57 +988,57 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>8</v>
@@ -1028,13 +1046,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>15</v>
@@ -1042,13 +1060,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>8</v>
@@ -1056,13 +1074,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>15</v>
@@ -1070,13 +1088,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>5</v>
@@ -1084,35 +1102,35 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>16</v>
@@ -1120,13 +1138,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>2</v>
@@ -1134,13 +1152,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>14</v>
@@ -1148,354 +1166,354 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>2</v>
@@ -1503,68 +1521,71 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="E79" s="1" t="n">
+        <v>28007</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>17</v>
@@ -1572,16 +1593,38 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>136</v>
+        <v>7</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>28005</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/madrid/Listado_Compradores.xlsx
+++ b/madrid/Listado_Compradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="144">
   <si>
     <t xml:space="preserve">Nombre Telegram</t>
   </si>
@@ -437,6 +437,21 @@
   </si>
   <si>
     <t xml:space="preserve">Mar Baos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad Lineal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmen RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irene S.T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quijorna</t>
   </si>
 </sst>
 </file>
@@ -567,9 +582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>675360</xdr:colOff>
+      <xdr:colOff>675000</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -583,7 +598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5849640" y="334800"/>
-          <a:ext cx="5531760" cy="4147920"/>
+          <a:ext cx="5531400" cy="4147560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,10 +618,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C83" activeCellId="0" sqref="C83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1612,7 +1627,7 @@
       <c r="B82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1623,9 +1638,56 @@
       <c r="B83" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C83" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/madrid/Listado_Compradores.xlsx
+++ b/madrid/Listado_Compradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="148">
   <si>
     <t xml:space="preserve">Nombre Telegram</t>
   </si>
@@ -452,6 +452,18 @@
   </si>
   <si>
     <t xml:space="preserve">Quijorna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almudena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pozuelo de Alarcón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventas</t>
   </si>
 </sst>
 </file>
@@ -582,9 +594,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>675000</xdr:colOff>
+      <xdr:colOff>674640</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -598,7 +610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5849640" y="334800"/>
-          <a:ext cx="5531400" cy="4147560"/>
+          <a:ext cx="5531040" cy="4147200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -618,10 +630,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B89" activeCellId="0" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1671,7 +1683,7 @@
       <c r="B86" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1687,7 +1699,26 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0"/>
+      <c r="A88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/madrid/Listado_Compradores.xlsx
+++ b/madrid/Listado_Compradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="148">
   <si>
     <t xml:space="preserve">Nombre Telegram</t>
   </si>
@@ -473,7 +473,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -501,11 +501,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -550,7 +545,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -564,10 +559,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,9 +585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>674640</xdr:colOff>
+      <xdr:colOff>674280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -610,7 +601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5849640" y="334800"/>
-          <a:ext cx="5531040" cy="4147200"/>
+          <a:ext cx="5530680" cy="4146840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -630,10 +621,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B89" activeCellId="0" sqref="B89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D90" activeCellId="0" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1705,7 +1696,7 @@
       <c r="B88" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1717,6 +1708,17 @@
         <v>147</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/madrid/Listado_Compradores.xlsx
+++ b/madrid/Listado_Compradores.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="153">
+  <si>
+    <t xml:space="preserve">Nombre Telegram</t>
+  </si>
   <si>
     <t xml:space="preserve">Localidad</t>
   </si>
@@ -397,9 +400,6 @@
     <t xml:space="preserve">N GA(Nuria)</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre Telegram</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chapinería</t>
   </si>
   <si>
@@ -464,6 +464,21 @@
   </si>
   <si>
     <t xml:space="preserve">Wanda Bitcoin (Jose)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juanra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuenlabrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatatan</t>
   </si>
 </sst>
 </file>
@@ -554,11 +569,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -571,15 +586,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -594,9 +600,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>673920</xdr:colOff>
+      <xdr:colOff>673560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -610,7 +616,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5849640" y="334800"/>
-          <a:ext cx="5530320" cy="4146480"/>
+          <a:ext cx="5529960" cy="4146120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -630,10 +636,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,43 +652,45 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>16</v>
@@ -690,27 +698,27 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>21</v>
@@ -718,13 +726,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>2</v>
@@ -732,35 +740,35 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>16</v>
@@ -768,52 +776,52 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>5</v>
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>8</v>
@@ -821,80 +829,80 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>20</v>
@@ -902,96 +910,96 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="B21" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>12</v>
@@ -999,60 +1007,60 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B28" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="B29" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B30" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="B31" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="B32" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>8</v>
@@ -1060,91 +1068,91 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>53</v>
+      <c r="A34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
+      <c r="B35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
+      <c r="B36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
+      <c r="B37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
+      <c r="B38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
+      <c r="B39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>16</v>
@@ -1152,13 +1160,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>2</v>
@@ -1166,13 +1174,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
+      <c r="B41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>14</v>
@@ -1180,409 +1188,409 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="B42" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="B43" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C43" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B45" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C45" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="B46" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="B47" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="B48" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="B50" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C50" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="B53" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C53" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="B55" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="C55" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="B56" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>94</v>
+      <c r="B57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="B58" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="C58" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="B60" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="B63" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="C63" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="2" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>119</v>
+      <c r="A66" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>121</v>
+      <c r="A67" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>124</v>
+      <c r="A69" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
-        <v>125</v>
+      <c r="A70" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>3</v>
@@ -1596,60 +1604,60 @@
         <v>135</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E80" s="1" t="n">
         <v>28005</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="C81" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>6</v>
+      <c r="C82" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,65 +1665,106 @@
         <v>140</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>94</v>
+      <c r="C87" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/madrid/Listado_Compradores.xlsx
+++ b/madrid/Listado_Compradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="153">
   <si>
     <t xml:space="preserve">Nombre Telegram</t>
   </si>
@@ -600,9 +600,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>673560</xdr:colOff>
+      <xdr:colOff>673200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -616,7 +616,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5849640" y="334800"/>
-          <a:ext cx="5529960" cy="4146120"/>
+          <a:ext cx="5529600" cy="4145760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -636,10 +636,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A94" activeCellId="0" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -1764,6 +1764,17 @@
         <v>145</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>95</v>
       </c>
     </row>

--- a/madrid/Listado_Compradores.xlsx
+++ b/madrid/Listado_Compradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="154">
   <si>
     <t xml:space="preserve">Nombre Telegram</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tatatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Tena</t>
   </si>
 </sst>
 </file>
@@ -600,9 +603,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>673200</xdr:colOff>
+      <xdr:colOff>672840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -616,7 +619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5849640" y="334800"/>
-          <a:ext cx="5529600" cy="4145760"/>
+          <a:ext cx="5529240" cy="4145400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -636,10 +639,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A94" activeCellId="0" sqref="A94"/>
+      <selection pane="topLeft" activeCell="D95" activeCellId="0" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1778,6 +1781,17 @@
         <v>95</v>
       </c>
     </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/madrid/Listado_Compradores.xlsx
+++ b/madrid/Listado_Compradores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
   <si>
     <t xml:space="preserve">Nombre Telegram</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t xml:space="preserve">Laura Tena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia Vega</t>
   </si>
 </sst>
 </file>
@@ -603,9 +606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>672840</xdr:colOff>
+      <xdr:colOff>672480</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -619,7 +622,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5849640" y="334800"/>
-          <a:ext cx="5529240" cy="4145400"/>
+          <a:ext cx="5528880" cy="4145040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,10 +642,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D95" activeCellId="0" sqref="D95"/>
+      <selection pane="topLeft" activeCell="D96" activeCellId="0" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1792,6 +1795,17 @@
         <v>95</v>
       </c>
     </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
